--- a/desafios/Desafio13/Desafio13.xlsx
+++ b/desafios/Desafio13/Desafio13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://febomoniz-my.sharepoint.com/personal/rui_santos_ae-almeirim_pt/Documents/Documentos/2022-2023/TM 3.º ano/SI/M8 - UFCD 9952 - Programação de aplicações e sítios web dinâmicos/aulas/HTML-CSS/Desafios/Desafio13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui Santos\Downloads\estudos23-24\html5-css3\desafios\Desafio13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{833D35E6-F25C-4AFE-9884-9C7FF1CBC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4011432-FD93-420C-9F51-1CDC4B5A9E81}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B20F5B-BA2B-4D45-BDA8-BC23357B3A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{70E204D5-C9D9-4FFE-86E0-DAD5183875C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{70E204D5-C9D9-4FFE-86E0-DAD5183875C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Desafio13p1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,75 +130,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="double">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -207,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,19 +162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,118 +479,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AF628-F5D3-40EF-B036-06BF35B3E027}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+    <row r="1" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>10</v>
-      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="2">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,9 +588,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -683,9 +600,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -695,9 +612,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -707,9 +624,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -719,9 +636,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -731,9 +648,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -743,9 +660,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -755,9 +672,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -767,9 +684,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -779,9 +696,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -791,9 +708,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -803,9 +720,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -815,9 +732,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -827,13 +744,26 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -842,114 +772,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6738EB-4DED-488C-BA00-A2CBB9809C5E}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -959,9 +877,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -971,9 +889,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -983,9 +901,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -995,9 +913,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1007,9 +925,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1019,9 +937,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1031,9 +949,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1043,9 +961,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1055,9 +973,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1067,9 +985,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1079,9 +997,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1091,9 +1009,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1103,9 +1021,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1115,13 +1033,26 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
